--- a/Documentacion/Proyecto/Encuesta.xlsx
+++ b/Documentacion/Proyecto/Encuesta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Videojuego\JanFox_V2\Documentacion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5121A-F156-4CEC-B82B-8638C61FCD46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B8FF6-C54B-4909-9FCF-6C1F280A25D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25698729-D011-45CE-9DB8-6B08B36D7FFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PREGUNTA</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Le gusto la temática del videojuego.</t>
   </si>
   <si>
-    <t>Se le facilito más que un videojuego convencional</t>
-  </si>
-  <si>
     <t>En absoluto</t>
   </si>
   <si>
@@ -60,17 +57,32 @@
     <t>Mucho</t>
   </si>
   <si>
-    <t>Le gusto la ambientación del videojuego (sonido, animaciones, colores)</t>
-  </si>
-  <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>El videojuego le parecio divertido.</t>
+  </si>
+  <si>
+    <t>Le recomendaria el videojuego a sus amigos.</t>
+  </si>
+  <si>
+    <t>La parecio díficil llegar a la victoria.</t>
+  </si>
+  <si>
+    <t>Se considera bueno jugando el videojuego.</t>
+  </si>
+  <si>
+    <t>Se le facilito más que un videojuego convencional.</t>
+  </si>
+  <si>
+    <t>Le gusto la ambientación del videojuego (sonido, animaciones, colores).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +90,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,30 +140,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B6F271-39DC-4FDE-9BE6-1C03740FC707}">
-  <dimension ref="C6:H11"/>
+  <dimension ref="C6:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,102 +495,174 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
